--- a/validacion.xlsx
+++ b/validacion.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xls_av-m14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5F5BF-4B87-4D61-821B-54A7A6F080CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39736C84-917A-4E81-80D5-A53DF548F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{107FF51D-E3BB-4059-85E7-2EC5CA8C4661}"/>
   </bookViews>
   <sheets>
     <sheet name="empleados" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="fecha_max">empleados!$I$6</definedName>
+    <definedName name="fecha_min">empleados!$I$4</definedName>
+    <definedName name="hoy">empleados!$I$2</definedName>
+    <definedName name="hoy_año">empleados!$J$2</definedName>
+    <definedName name="nacimiento">empleados!$D:$D</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>codigo</t>
   </si>
@@ -109,16 +116,45 @@
   </si>
   <si>
     <t>jp@gmail.com</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>minimo</t>
+  </si>
+  <si>
+    <t>maximo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,19 +188,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D899DE07-1FB2-4EF2-8912-3320E45CEC44}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,15 +529,20 @@
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,17 +567,32 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
       <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -545,8 +605,9 @@
       <c r="D2" s="2">
         <v>33346</v>
       </c>
-      <c r="E2">
-        <v>31</v>
+      <c r="E2" s="4">
+        <f ca="1">(I2-D2)/365</f>
+        <v>31.87306139174277</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -554,21 +615,42 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="2">
-        <f ca="1">TODAY()</f>
-        <v>44979</v>
-      </c>
-      <c r="K2" t="s">
+        <f ca="1">NOW()</f>
+        <v>44979.667407986111</v>
+      </c>
+      <c r="J2" s="6">
+        <f ca="1">YEAR(I2)</f>
+        <v>2023</v>
+      </c>
+      <c r="K2" s="5">
+        <f ca="1">MONTH(I2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
+        <f ca="1">DAY(I2)</f>
+        <v>22</v>
+      </c>
+      <c r="M2" s="5">
+        <f ca="1">HOUR(I2)</f>
+        <v>16</v>
+      </c>
+      <c r="N2" s="5">
+        <f ca="1">MINUTE(I2)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -590,31 +672,54 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="K3" t="s">
+      <c r="I3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
+      <c r="I4" s="2">
+        <f ca="1">DATE(J2-65,1,1)</f>
+        <v>21186</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
+        <f ca="1">DATE(YEAR(I2)-18,12,31)</f>
+        <v>38717</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{9BEC4D22-73DE-448C-BF10-EA22066ABD8F}">
       <formula1>1</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Fecha no Permitida" error="La fecha debe encontrarse entre 1953 y 2003, cualquier otro valor no esta permitido" promptTitle="Año de Nacimiento" prompt="Ingrese una fecha entre 1953 y 2003" sqref="D1:D1048576" xr:uid="{3C8E78EC-99F4-4F85-8F7A-C7989B94E3DD}">
-      <formula1>19360</formula1>
-      <formula2>37986</formula2>
+      <formula1>fecha_min</formula1>
+      <formula2>fecha_max</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ingrese un valor que posea entre 2 y 50 caracteres" sqref="B1:C1048576" xr:uid="{FB7ECC8F-24F6-479B-8827-6A0FCC08C61C}">
+      <formula1>2</formula1>
+      <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
